--- a/input_file/default.xlsx
+++ b/input_file/default.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$H$3</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>Hostname</t>
   </si>
@@ -25,184 +22,58 @@
     <t>IP</t>
   </si>
   <si>
-    <t>Authentication</t>
-  </si>
-  <si>
-    <t>timeout</t>
+    <t>self_check</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>[{"regex":{"status":"down"},"score":0},{"regex":{"status":"reachable"},"score":100}]</t>
+  </si>
+  <si>
+    <t>cis_sw_int</t>
+  </si>
+  <si>
+    <t>[{"regex":{"interface":"down"},"score":0},{"regex":{"interface":"up"},"score":100}]</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>{"username":"cisco","password":"cisco","timeout":10}</t>
   </si>
   <si>
     <t>10.1.1.2</t>
   </si>
   <si>
-    <t>{"username":"cisco","password":"cisco"}</t>
+    <t>10.1.1.3</t>
   </si>
   <si>
     <t>CHN_1</t>
   </si>
   <si>
-    <t>self_check</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>[{"regex":["down"],"score":0},{"regex":["up"],"score":100}]</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>monitor</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>[{"regex":["failed"],"score":0},{"regex":["success"],"score":100}]</t>
-  </si>
-  <si>
-    <t>[{"regex":["down"],"score":0},{"regex":["reachable"],"score":100}]</t>
-  </si>
-  <si>
     <t>CHN_2</t>
   </si>
   <si>
+    <t>{"interface":"fa0/0","check":"bits,duplex,speed,error"}</t>
+  </si>
+  <si>
+    <t>{"interface":"fa0/1","check":"bits,duplex,speed,error"}</t>
+  </si>
+  <si>
     <t>CHN_3</t>
   </si>
   <si>
-    <t>CHN_4</t>
-  </si>
-  <si>
-    <t>CHN_5</t>
-  </si>
-  <si>
-    <t>CHN_6</t>
-  </si>
-  <si>
-    <t>CHN_7</t>
-  </si>
-  <si>
-    <t>CHN_8</t>
-  </si>
-  <si>
-    <t>CHN_9</t>
-  </si>
-  <si>
-    <t>CHN_10</t>
-  </si>
-  <si>
-    <t>CHN_11</t>
-  </si>
-  <si>
-    <t>CHN_12</t>
-  </si>
-  <si>
-    <t>CHN_13</t>
-  </si>
-  <si>
-    <t>CHN_14</t>
-  </si>
-  <si>
-    <t>CHN_15</t>
-  </si>
-  <si>
-    <t>CHN_16</t>
-  </si>
-  <si>
-    <t>CHN_17</t>
-  </si>
-  <si>
-    <t>CHN_18</t>
-  </si>
-  <si>
-    <t>CHN_19</t>
-  </si>
-  <si>
-    <t>CHN_20</t>
-  </si>
-  <si>
-    <t>CHN_21</t>
-  </si>
-  <si>
-    <t>CHN_22</t>
-  </si>
-  <si>
-    <t>CHN_23</t>
-  </si>
-  <si>
-    <t>CHN_24</t>
-  </si>
-  <si>
-    <t>10.1.1.3</t>
-  </si>
-  <si>
-    <t>10.1.1.4</t>
-  </si>
-  <si>
-    <t>10.1.1.5</t>
-  </si>
-  <si>
-    <t>10.1.1.6</t>
-  </si>
-  <si>
-    <t>10.1.1.7</t>
-  </si>
-  <si>
-    <t>10.1.1.8</t>
-  </si>
-  <si>
-    <t>10.1.1.9</t>
-  </si>
-  <si>
-    <t>10.1.1.10</t>
-  </si>
-  <si>
-    <t>10.1.1.11</t>
-  </si>
-  <si>
-    <t>10.1.1.12</t>
-  </si>
-  <si>
-    <t>10.1.1.13</t>
-  </si>
-  <si>
-    <t>10.1.1.14</t>
-  </si>
-  <si>
-    <t>10.1.1.15</t>
-  </si>
-  <si>
-    <t>10.1.1.16</t>
-  </si>
-  <si>
-    <t>10.1.1.17</t>
-  </si>
-  <si>
-    <t>10.1.1.18</t>
-  </si>
-  <si>
-    <t>10.1.1.19</t>
-  </si>
-  <si>
-    <t>10.1.1.20</t>
-  </si>
-  <si>
-    <t>10.1.1.21</t>
-  </si>
-  <si>
-    <t>10.1.1.22</t>
-  </si>
-  <si>
-    <t>10.1.1.23</t>
-  </si>
-  <si>
-    <t>10.1.1.24</t>
-  </si>
-  <si>
-    <t>10.1.1.25</t>
+    <t>cis_raw</t>
+  </si>
+  <si>
+    <t>{"cmd":"show clock,show run,show clock,show tech,show clock"}</t>
+  </si>
+  <si>
+    <t>[{"regex":{"result":"failed"},"score":0},{"regex":{"result":"success"},"score":100}]</t>
   </si>
   <si>
     <t>Group</t>
@@ -211,16 +82,7 @@
     <t>Level</t>
   </si>
   <si>
-    <t>firewall,router</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>router</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -758,6 +620,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1050,25 +915,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,800 +938,229 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>10</v>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>10</v>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>10</v>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>10</v>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" t="s">
-        <v>67</v>
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>